--- a/xlsx/苏丹_intext.xlsx
+++ b/xlsx/苏丹_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
   <si>
     <t>苏丹</t>
   </si>
@@ -29,19 +29,19 @@
     <t>苏丹 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_苏丹</t>
+    <t>政策_政策_美国_苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>苏丹共和国國旗</t>
+    <t>苏丹共和国国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%AD%8C</t>
   </si>
   <si>
-    <t>國歌</t>
+    <t>国歌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%91%E4%BB%AC%E6%98%AF%E5%AE%89%E6%8B%89%E5%92%8C%E7%A5%96%E5%9B%BD%E7%9A%84%E6%88%98%E5%A3%AB</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E9%9D%A2%E7%A9%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家面積列表</t>
+    <t>国家面积列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E9%83%BD</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E7%B4%9A%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>一級行政區</t>
+    <t>一级行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%B9%E5%B7%9E</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%B2%B8%E7%B7%9A</t>
   </si>
   <si>
-    <t>海岸線</t>
+    <t>海岸线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E5%8D%80</t>
   </si>
   <si>
-    <t>時區</t>
+    <t>时区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/UTC</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國家人口列表</t>
+    <t>国家人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016%E5%B9%B4</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>官方語言</t>
+    <t>官方语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>阿拉伯語</t>
+    <t>阿拉伯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%98%E6%96%B9%E6%96%87%E5%AD%97</t>
@@ -197,7 +197,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E7%88%BE%E4%BA%BA</t>
   </si>
   <si>
-    <t>富爾人</t>
+    <t>富尔人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99</t>
@@ -209,25 +209,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯蘭教</t>
+    <t>伊斯兰教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%86%E6%B3%95</t>
   </si>
   <si>
-    <t>曆法</t>
+    <t>历法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%9B%86</t>
   </si>
   <si>
-    <t>伊斯蘭曆</t>
+    <t>伊斯兰历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E8%A6%81%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>主要節日</t>
+    <t>主要节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%BA%86%E8%8A%82</t>
@@ -239,31 +239,31 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E9%9B%BB%E6%BA%90%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>家用電源列表</t>
+    <t>家用电源列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A0%BB%E7%8E%87</t>
   </si>
   <si>
-    <t>頻率</t>
+    <t>频率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>國家憲法</t>
+    <t>国家宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%AC%8A</t>
   </si>
   <si>
-    <t>政權</t>
+    <t>政权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%AE%AE%E4%BC%9A</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E9%AB%94%E5%88%B6</t>
   </si>
   <si>
-    <t>政治體制</t>
+    <t>政治体制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
@@ -305,25 +305,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>法律體系</t>
+    <t>法律体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95</t>
   </si>
   <si>
-    <t>伊斯蘭教法</t>
+    <t>伊斯兰教法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E5%85%83%E9%A6%96</t>
   </si>
   <si>
-    <t>國家元首</t>
+    <t>国家元首</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD%E7%B8%BD%E7%B5%B1</t>
   </si>
   <si>
-    <t>苏丹共和国總統</t>
+    <t>苏丹共和国总统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A5%E9%A9%AC%E5%B0%94%C2%B7%E5%B7%B4%E5%B8%8C%E5%B0%94</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9B%BD%E6%80%BB%E7%90%86</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%85%A7%E7%94%9F%E7%94%A2%E7%B8%BD%E5%80%BC</t>
   </si>
   <si>
-    <t>國內生產總值</t>
+    <t>国内生产总值</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B%E5%B9%B3%E5%83%B9</t>
   </si>
   <si>
-    <t>購買力平價</t>
+    <t>购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E7%99%BC%E5%B1%95%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>人類發展指數</t>
+    <t>人类发展指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013%E5%B9%B4</t>
@@ -383,7 +383,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%9C%8B%E6%97%97</t>
   </si>
   <si>
-    <t>蘇丹國旗</t>
+    <t>苏丹国旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-1</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%9F%9F%E5%90%8D%E7%B8%AE%E5%AF%AB</t>
   </si>
   <si>
-    <t>國際域名縮寫</t>
+    <t>国际域名缩写</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/.sd</t>
@@ -407,25 +407,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%9B%BB%E8%A9%B1%E5%8D%80%E8%99%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>國際電話區號列表</t>
+    <t>国际电话区号列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際冠碼</t>
+    <t>国际冠码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>国际电话区号列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%88%BE%E5%AF%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>達爾富爾</t>
+    <t>达尔富尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -449,21 +446,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B0%BC%E7%BE%85%E7%9C%81</t>
   </si>
   <si>
-    <t>青尼羅省</t>
+    <t>青尼罗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E7%BE%85%E5%9F%83</t>
   </si>
   <si>
-    <t>麥羅埃</t>
+    <t>麦罗埃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%AF%AD</t>
   </si>
   <si>
-    <t>阿拉伯语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9%E7%8B%AC%E7%AB%8B%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
@@ -509,19 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E5%AF%8C%E5%B0%94</t>
   </si>
   <si>
-    <t>达尔富尔</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%8B%8F%E4%B8%B9</t>
   </si>
   <si>
-    <t>南苏丹</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南蘇丹共和國</t>
+    <t>南苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E4%B8%B9%E5%8E%86%E5%8F%B2</t>
@@ -545,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E6%96%BD%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>庫施王國</t>
+    <t>库施王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%85%8B%E8%8B%8F%E5%A7%86%E5%B8%9D%E5%9B%BD</t>
@@ -563,9 +551,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E5%85%B0%E6%95%99</t>
   </si>
   <si>
-    <t>伊斯兰教</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
@@ -581,13 +566,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E7%93%A6</t>
   </si>
   <si>
-    <t>阿爾瓦</t>
+    <t>阿尔瓦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9C%8B</t>
   </si>
   <si>
-    <t>王國</t>
+    <t>王国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B0%E5%90%89%E8%8B%8F%E4%B8%B9%E5%9B%BD</t>
@@ -599,7 +584,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E7%B4%8D%E7%88%BE</t>
   </si>
   <si>
-    <t>森納爾</t>
+    <t>森纳尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%B0%BC%E7%BD%97%E6%B2%B3</t>
@@ -617,7 +602,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%90%86%C2%B7%E5%96%AC%E6%B2%BB%C2%B7%E6%88%88%E7%99%BB</t>
   </si>
   <si>
-    <t>查理·喬治·戈登</t>
+    <t>查理·乔治·戈登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E7%BD%95%E9%BB%98%E5%BE%B7%C2%B7%E8%89%BE%E5%93%88%E8%BF%88%E5%BE%B7%C2%B7%E9%A9%AC%E8%B5%AB%E8%BF%AA</t>
@@ -635,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%B0%BC%E7%BE%85%E6%B2%B3</t>
   </si>
   <si>
-    <t>白尼羅河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%8D%9C%E6%9D%9C%E6%8B%89</t>
   </si>
   <si>
@@ -647,9 +629,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
-    <t>王国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9B%BD</t>
   </si>
   <si>
@@ -659,19 +638,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%81%A9%E5%9C%96%E6%9B%BC%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>恩圖曼戰役</t>
+    <t>恩图曼战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9F%83%E5%85%B1%E7%AE%A1%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>英埃共管蘇丹</t>
+    <t>英埃共管苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E8%98%87%E4%B8%B9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次蘇丹內戰</t>
+    <t>第一次苏丹内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%B3%95%E5%B0%94%C2%B7%E5%B0%BC%E8%BF%88%E9%87%8C</t>
@@ -683,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E8%98%87%E4%B8%B9%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次蘇丹內戰</t>
+    <t>第二次苏丹内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E5%B0%94%E5%AF%8C%E5%B0%94%E5%86%B2%E7%AA%81</t>
@@ -755,19 +734,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>阿爾及利亞</t>
+    <t>阿尔及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%9B%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>剛果民主共和國</t>
+    <t>刚果民主共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>利比亞</t>
+    <t>利比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8D%E5%BE%97</t>
@@ -779,19 +758,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%9D%9E%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中非共和國</t>
+    <t>中非共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%84%E5%88%A9%E5%9E%82%E4%BA%9E</t>
   </si>
   <si>
-    <t>厄利垂亞</t>
+    <t>厄利垂亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%86%E5%9C%B0</t>
@@ -815,13 +794,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9F%83%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>英埃蘇丹</t>
+    <t>英埃苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -833,7 +809,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
-    <t>衣索比亞高原</t>
+    <t>衣索比亚高原</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -845,13 +821,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E7%BE%85%E6%B2%B3</t>
   </si>
   <si>
-    <t>尼羅河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%9F%E5%8F%A4%E6%8B%89</t>
   </si>
   <si>
-    <t>棟古拉</t>
+    <t>栋古拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E8%BF%AA%E5%93%88%E5%8B%92%E6%B3%95</t>
@@ -863,13 +836,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9%E7%8D%A8%E7%AB%8B%E5%85%AC%E6%8A%95</t>
   </si>
   <si>
-    <t>南蘇丹獨立公投</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>馬拉山脈</t>
+    <t>马拉山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E9%BA%BB</t>
@@ -911,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%B0%BC%E7%BE%85%E6%B2%B3</t>
   </si>
   <si>
-    <t>藍尼羅河</t>
+    <t>蓝尼罗河</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%89%E8%8A%B1</t>
@@ -959,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E8%96%A9%E6%8B%89</t>
   </si>
   <si>
-    <t>卡薩拉</t>
+    <t>卡萨拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%96%80%E5%9C%9F%E7%A9%86</t>
@@ -1013,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E5%A5%88%E7%B4%8D</t>
   </si>
   <si>
-    <t>朱奈納</t>
+    <t>朱奈纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E5%B0%94%E5%AF%8C%E5%B0%94%E7%9C%81</t>
@@ -1037,37 +1007,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>蘇丹經濟</t>
+    <t>苏丹经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E6%B8%AF</t>
   </si>
   <si>
-    <t>蘇丹港</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8C%B3</t>
   </si>
   <si>
-    <t>錳</t>
+    <t>锰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%90%B5</t>
   </si>
   <si>
-    <t>鐵</t>
+    <t>铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%85</t>
   </si>
   <si>
-    <t>銅</t>
+    <t>铜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E7%83%8F</t>
   </si>
   <si>
-    <t>瓦烏</t>
+    <t>瓦乌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%80%E5%9C%9F%E7%A9%86%E5%9B%BD%E9%99%85%E6%9C%BA%E5%9C%BA</t>
@@ -1079,7 +1046,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>歐洲國家</t>
+    <t>欧洲国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%AD%89%E5%AD%A6%E6%A0%A1</t>
@@ -1091,7 +1058,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8B%E9%9D%A2</t>
   </si>
   <si>
-    <t>紋面</t>
+    <t>纹面</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%8A%93%E9%A5%AD</t>
@@ -1121,13 +1088,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E5%82%B3%E5%AA%92</t>
   </si>
   <si>
-    <t>風傳媒</t>
+    <t>风传媒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E5%9F%BA%E6%96%B0%E9%97%BB</t>
@@ -1163,15 +1130,9 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8F%8A%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>阿尔及利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E4%BA%9A</t>
   </si>
   <si>
-    <t>利比亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E6%B4%9B%E5%93%A5</t>
   </si>
   <si>
@@ -1181,7 +1142,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%83%A8%E9%9D%9E%E6%B4%B2</t>
@@ -1199,7 +1160,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%90%89%E7%B4%8D%E6%B3%95%E7%B4%A2</t>
   </si>
   <si>
-    <t>布吉納法索</t>
+    <t>布吉纳法索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%89%B9%E8%BF%AA%E7%93%A6</t>
@@ -1229,7 +1190,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B9%BE%E5%85%A7%E4%BA%9E%E6%AF%94%E7%B4%A2</t>
   </si>
   <si>
-    <t>幾內亞比索</t>
+    <t>几内亚比索</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -1259,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94</t>
@@ -1319,9 +1280,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%9A%E6%9E%9C%E6%B0%91%E4%B8%BB%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>刚果民主共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%A4%9A%E7%BE%8E%E5%92%8C%E6%99%AE%E6%9E%97%E8%A5%BF%E6%AF%94</t>
   </si>
   <si>
@@ -1487,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%B1%AC%E5%8D%B0%E5%BA%A6%E6%B4%8B%E9%A0%98%E5%9C%B0</t>
   </si>
   <si>
-    <t>英屬印度洋領地</t>
+    <t>英属印度洋领地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E9%82%A3%E5%88%A9%E7%BE%A4%E5%B2%9B</t>
@@ -1511,7 +1469,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%BE%B7%E6%8B%89</t>
   </si>
   <si>
-    <t>馬德拉</t>
+    <t>马德拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E7%BA%A6%E7%89%B9</t>
@@ -1577,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%94%BF%E5%8D%80%E7%B4%A2%E5%BC%95</t>
   </si>
   <si>
-    <t>世界政區索引</t>
+    <t>世界政区索引</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E6%B4%B2</t>
@@ -1739,13 +1697,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E7%83%8F%E5%9C%B0%E9%98%BF%E6%8B%89%E4%BC%AF</t>
   </si>
   <si>
-    <t>沙烏地阿拉伯</t>
+    <t>沙乌地阿拉伯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%8B%89%E4%BC%AF%E8%81%AF%E5%90%88%E5%A4%A7%E5%85%AC%E5%9C%8B</t>
   </si>
   <si>
-    <t>阿拉伯聯合大公國</t>
+    <t>阿拉伯联合大公国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%A8%81%E7%89%B9</t>
@@ -1757,7 +1715,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%9E%97</t>
@@ -1775,7 +1733,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E5%A7%86%E5%9C%B0%E5%8C%BA</t>
@@ -1829,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E9%97%AE%E9%A2%98</t>
@@ -1877,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%9B%E9%98%BF%E6%8B%89%E4%BC%AF%E9%A1%8F%E8%89%B2</t>
   </si>
   <si>
-    <t>泛阿拉伯顏色</t>
+    <t>泛阿拉伯颜色</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%B3%E6%B2%B9%E8%BE%93%E5%87%BA%E5%9B%BD%E7%BB%84%E7%BB%87</t>
@@ -1919,13 +1877,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -1949,33 +1907,24 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E6%97%A6</t>
   </si>
   <si>
-    <t>約旦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E5%88%A9%E5%A1%94%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>茅利塔尼亞</t>
+    <t>茅利塔尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%8B%92%E6%96%AF%E5%9D%A6%E5%9C%8B</t>
   </si>
   <si>
-    <t>巴勒斯坦國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E4%B8%B9%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>蘇丹共和國</t>
+    <t>苏丹共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>敘利亞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
   </si>
   <si>
@@ -2075,7 +2024,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%88%A9%E5%8D%97</t>
   </si>
   <si>
-    <t>蘇利南</t>
+    <t>苏利南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%90%89%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -2135,19 +2084,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>北賽普勒斯</t>
+    <t>北赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%B4%9B%E6%B0%91%E6%97%8F%E8%A7%A3%E6%94%BE%E9%99%A3%E7%B7%9A</t>
   </si>
   <si>
-    <t>莫洛民族解放陣線</t>
+    <t>莫洛民族解放阵线</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Parliamentary_Union_of_the_OIC_Member_States</t>
@@ -2207,7 +2156,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%88%A9%E8%8C%B2</t>
   </si>
   <si>
-    <t>伯利茲</t>
+    <t>伯利兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%B8%B9</t>
@@ -2219,7 +2168,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%B6%E8%90%8A</t>
   </si>
   <si>
-    <t>汶萊</t>
+    <t>汶莱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%9F%BA%E7%BA%B3%E6%B3%95%E7%B4%A2</t>
@@ -2363,13 +2312,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E5%AE%BE</t>
   </si>
   <si>
-    <t>菲律宾</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%85%8B%E9%87%8C%E6%96%AF%E5%A4%9A%E7%A6%8F%E8%88%87%E5%B0%BC%E7%B6%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>聖克里斯多福與尼維斯</t>
+    <t>圣克里斯多福与尼维斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%8D%A2%E8%A5%BF%E4%BA%9A</t>
@@ -2429,7 +2375,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -2465,7 +2411,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%85%A7%E5%93%A5%E7%BE%85</t>
   </si>
   <si>
-    <t>蒙特內哥羅</t>
+    <t>蒙特内哥罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD</t>
@@ -2495,7 +2441,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2525,13 +2471,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -3268,7 +3214,7 @@
         <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="s">
         <v>4</v>
@@ -4918,7 +4864,7 @@
         <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4944,10 +4890,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>134</v>
+      </c>
+      <c r="F71" t="s">
         <v>135</v>
-      </c>
-      <c r="F71" t="s">
-        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -4973,10 +4919,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>136</v>
+      </c>
+      <c r="F72" t="s">
         <v>137</v>
-      </c>
-      <c r="F72" t="s">
-        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -5002,10 +4948,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>138</v>
+      </c>
+      <c r="F73" t="s">
         <v>139</v>
-      </c>
-      <c r="F73" t="s">
-        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -5031,10 +4977,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>140</v>
+      </c>
+      <c r="F74" t="s">
         <v>141</v>
-      </c>
-      <c r="F74" t="s">
-        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -5060,10 +5006,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>142</v>
+      </c>
+      <c r="F75" t="s">
         <v>143</v>
-      </c>
-      <c r="F75" t="s">
-        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -5089,10 +5035,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>144</v>
+      </c>
+      <c r="F76" t="s">
         <v>145</v>
-      </c>
-      <c r="F76" t="s">
-        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -5118,10 +5064,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="G77" t="n">
         <v>3</v>
@@ -5147,10 +5093,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -5176,10 +5122,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>19</v>
@@ -5205,10 +5151,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>4</v>
@@ -5234,10 +5180,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -5263,10 +5209,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -5292,10 +5238,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -5321,10 +5267,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -5350,10 +5296,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="G85" t="n">
         <v>18</v>
@@ -5379,10 +5325,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>6</v>
       </c>
       <c r="G86" t="n">
         <v>6</v>
@@ -5408,10 +5354,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F87" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -5437,10 +5383,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F88" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -5466,10 +5412,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F89" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -5495,10 +5441,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F90" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -5524,10 +5470,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F91" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G91" t="n">
         <v>26</v>
@@ -5553,10 +5499,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F92" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -5582,10 +5528,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F93" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -5611,10 +5557,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F94" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -5640,10 +5586,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F95" t="s">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="G95" t="n">
         <v>3</v>
@@ -5669,10 +5615,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F96" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G96" t="n">
         <v>44</v>
@@ -5698,10 +5644,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F97" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G97" t="n">
         <v>3</v>
@@ -5727,10 +5673,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F98" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5756,10 +5702,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F99" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G99" t="n">
         <v>4</v>
@@ -5785,10 +5731,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F100" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5814,10 +5760,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F101" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5843,10 +5789,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F102" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5872,10 +5818,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F103" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5901,10 +5847,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="F104" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="G104" t="n">
         <v>7</v>
@@ -5930,10 +5876,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="F105" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5959,10 +5905,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F106" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G106" t="n">
         <v>5</v>
@@ -5988,10 +5934,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -6017,10 +5963,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="F108" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -6046,10 +5992,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F109" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G109" t="n">
         <v>6</v>
@@ -6075,10 +6021,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F110" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="G110" t="n">
         <v>7</v>
@@ -6104,10 +6050,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F111" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -6133,10 +6079,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F112" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -6162,10 +6108,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F113" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -6191,10 +6137,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="F114" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -6220,10 +6166,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F115" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -6249,10 +6195,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -6307,10 +6253,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F118" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -6336,10 +6282,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F119" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -6365,10 +6311,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -6394,10 +6340,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G121" t="n">
         <v>15</v>
@@ -6423,10 +6369,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G122" t="n">
         <v>4</v>
@@ -6452,10 +6398,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -6481,10 +6427,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G124" t="n">
         <v>5</v>
@@ -6510,10 +6456,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F125" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G125" t="n">
         <v>22</v>
@@ -6539,10 +6485,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F126" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="G126" t="n">
         <v>4</v>
@@ -6568,10 +6514,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6597,10 +6543,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>136</v>
+      </c>
+      <c r="F128" t="s">
         <v>137</v>
-      </c>
-      <c r="F128" t="s">
-        <v>138</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -6626,10 +6572,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="F129" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -6655,10 +6601,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="F130" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -6684,10 +6630,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F131" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -6713,10 +6659,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F132" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -6742,10 +6688,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F133" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6771,10 +6717,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F134" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="G134" t="n">
         <v>6</v>
@@ -6800,10 +6746,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F135" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G135" t="n">
         <v>5</v>
@@ -6829,10 +6775,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F136" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G136" t="n">
         <v>3</v>
@@ -6858,10 +6804,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F137" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -6887,10 +6833,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G138" t="n">
         <v>2</v>
@@ -6916,10 +6862,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F139" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6945,10 +6891,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F140" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6974,10 +6920,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F141" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -7003,10 +6949,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F142" t="s">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c r="G142" t="n">
         <v>7</v>
@@ -7032,10 +6978,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F143" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -7061,10 +7007,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F144" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -7090,10 +7036,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -7119,10 +7065,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G146" t="n">
         <v>6</v>
@@ -7148,10 +7094,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F147" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="G147" t="n">
         <v>9</v>
@@ -7177,10 +7123,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>136</v>
+      </c>
+      <c r="F148" t="s">
         <v>137</v>
-      </c>
-      <c r="F148" t="s">
-        <v>138</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -7206,10 +7152,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" t="s">
         <v>137</v>
-      </c>
-      <c r="F149" t="s">
-        <v>138</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -7235,10 +7181,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F150" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -7264,10 +7210,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G151" t="n">
         <v>5</v>
@@ -7293,10 +7239,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>148</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -7322,10 +7268,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7351,10 +7297,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -7380,10 +7326,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="F155" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7409,10 +7355,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F156" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7438,10 +7384,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F157" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7467,10 +7413,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F158" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7496,10 +7442,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7525,10 +7471,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -7554,10 +7500,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F161" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7583,10 +7529,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="G162" t="n">
         <v>3</v>
@@ -7612,10 +7558,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -7641,10 +7587,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -7670,10 +7616,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
+        <v>136</v>
+      </c>
+      <c r="F165" t="s">
         <v>137</v>
-      </c>
-      <c r="F165" t="s">
-        <v>138</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7699,10 +7645,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>136</v>
+      </c>
+      <c r="F166" t="s">
         <v>137</v>
-      </c>
-      <c r="F166" t="s">
-        <v>138</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7728,10 +7674,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>136</v>
+      </c>
+      <c r="F167" t="s">
         <v>137</v>
-      </c>
-      <c r="F167" t="s">
-        <v>138</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7757,10 +7703,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F168" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="G168" t="n">
         <v>3</v>
@@ -7786,10 +7732,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>136</v>
+      </c>
+      <c r="F169" t="s">
         <v>137</v>
-      </c>
-      <c r="F169" t="s">
-        <v>138</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7815,10 +7761,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="F170" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7844,10 +7790,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="F171" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7873,10 +7819,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>136</v>
+      </c>
+      <c r="F172" t="s">
         <v>137</v>
-      </c>
-      <c r="F172" t="s">
-        <v>138</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7902,10 +7848,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F173" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7931,10 +7877,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="F174" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -7960,10 +7906,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F175" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7989,10 +7935,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F176" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -8018,10 +7964,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="F177" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -8047,10 +7993,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F178" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -8076,10 +8022,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F179" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -8105,10 +8051,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F180" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -8134,10 +8080,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F181" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -8163,10 +8109,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>136</v>
+      </c>
+      <c r="F182" t="s">
         <v>137</v>
-      </c>
-      <c r="F182" t="s">
-        <v>138</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8192,10 +8138,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F183" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -8221,10 +8167,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F184" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -8250,10 +8196,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F185" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -8279,10 +8225,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F186" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8308,10 +8254,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F187" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8337,10 +8283,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F188" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8366,10 +8312,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F189" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8395,10 +8341,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F190" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="G190" t="n">
         <v>4</v>
@@ -8424,10 +8370,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F191" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8453,10 +8399,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F192" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G192" t="n">
         <v>15</v>
@@ -8482,10 +8428,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F193" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8511,10 +8457,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F194" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -8540,10 +8486,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F195" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8569,10 +8515,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F196" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8598,10 +8544,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F197" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8627,10 +8573,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F198" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8656,10 +8602,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F199" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8685,10 +8631,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F200" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8714,10 +8660,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="F201" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8743,10 +8689,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="F202" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8772,10 +8718,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="F203" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8801,10 +8747,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="F204" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8830,10 +8776,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="F205" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8859,10 +8805,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="F206" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8888,10 +8834,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="F207" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8917,10 +8863,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="F208" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8946,10 +8892,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="F209" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8975,10 +8921,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="F210" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -9004,10 +8950,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>138</v>
+      </c>
+      <c r="F211" t="s">
         <v>139</v>
-      </c>
-      <c r="F211" t="s">
-        <v>140</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -9033,10 +8979,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="F212" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G212" t="n">
         <v>9</v>
@@ -9062,10 +9008,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F213" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -9091,10 +9037,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="F214" t="s">
-        <v>382</v>
+        <v>239</v>
       </c>
       <c r="G214" t="n">
         <v>5</v>
@@ -9120,10 +9066,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="F215" t="s">
-        <v>384</v>
+        <v>243</v>
       </c>
       <c r="G215" t="n">
         <v>3</v>
@@ -9149,10 +9095,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="F216" t="s">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="G216" t="n">
         <v>6</v>
@@ -9178,10 +9124,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F217" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G217" t="n">
         <v>3</v>
@@ -9207,10 +9153,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="F218" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9236,10 +9182,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="F219" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="G219" t="n">
         <v>3</v>
@@ -9265,10 +9211,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="F220" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="G220" t="n">
         <v>2</v>
@@ -9294,10 +9240,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>395</v>
+        <v>382</v>
       </c>
       <c r="F221" t="s">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="G221" t="n">
         <v>3</v>
@@ -9323,10 +9269,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="F222" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="G222" t="n">
         <v>3</v>
@@ -9352,10 +9298,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="F223" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="G223" t="n">
         <v>2</v>
@@ -9381,10 +9327,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F224" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9410,10 +9356,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="F225" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9439,10 +9385,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="F226" t="s">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="G226" t="n">
         <v>2</v>
@@ -9468,10 +9414,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="F227" t="s">
-        <v>408</v>
+        <v>395</v>
       </c>
       <c r="G227" t="n">
         <v>3</v>
@@ -9497,10 +9443,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>409</v>
+        <v>396</v>
       </c>
       <c r="F228" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="G228" t="n">
         <v>3</v>
@@ -9526,10 +9472,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="F229" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="G229" t="n">
         <v>4</v>
@@ -9555,10 +9501,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F230" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G230" t="n">
         <v>3</v>
@@ -9584,10 +9530,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="F231" t="s">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="G231" t="n">
         <v>3</v>
@@ -9613,10 +9559,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>417</v>
+        <v>404</v>
       </c>
       <c r="F232" t="s">
-        <v>418</v>
+        <v>405</v>
       </c>
       <c r="G232" t="n">
         <v>3</v>
@@ -9642,10 +9588,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>419</v>
+        <v>406</v>
       </c>
       <c r="F233" t="s">
-        <v>420</v>
+        <v>407</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9671,10 +9617,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="F234" t="s">
-        <v>422</v>
+        <v>409</v>
       </c>
       <c r="G234" t="n">
         <v>2</v>
@@ -9700,10 +9646,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>423</v>
+        <v>410</v>
       </c>
       <c r="F235" t="s">
-        <v>424</v>
+        <v>411</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9729,10 +9675,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>425</v>
+        <v>412</v>
       </c>
       <c r="F236" t="s">
-        <v>426</v>
+        <v>413</v>
       </c>
       <c r="G236" t="n">
         <v>3</v>
@@ -9758,10 +9704,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F237" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G237" t="n">
         <v>5</v>
@@ -9787,10 +9733,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="F238" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="G238" t="n">
         <v>3</v>
@@ -9816,10 +9762,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="F239" t="s">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="G239" t="n">
         <v>3</v>
@@ -9845,10 +9791,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F240" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G240" t="n">
         <v>2</v>
@@ -9874,10 +9820,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F241" t="s">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9903,10 +9849,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="F242" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="G242" t="n">
         <v>2</v>
@@ -9932,10 +9878,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="F243" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9961,10 +9907,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="F244" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="G244" t="n">
         <v>3</v>
@@ -9990,10 +9936,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="F245" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="G245" t="n">
         <v>2</v>
@@ -10019,10 +9965,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F246" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G246" t="n">
         <v>4</v>
@@ -10048,10 +9994,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="F247" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="G247" t="n">
         <v>2</v>
@@ -10077,10 +10023,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="F248" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="G248" t="n">
         <v>2</v>
@@ -10106,10 +10052,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="F249" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="G249" t="n">
         <v>2</v>
@@ -10135,10 +10081,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="F250" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10164,10 +10110,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="F251" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="G251" t="n">
         <v>2</v>
@@ -10193,10 +10139,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="F252" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="G252" t="n">
         <v>2</v>
@@ -10222,10 +10168,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="F253" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="G253" t="n">
         <v>2</v>
@@ -10251,10 +10197,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="F254" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="G254" t="n">
         <v>2</v>
@@ -10280,10 +10226,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="F255" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="G255" t="n">
         <v>2</v>
@@ -10309,10 +10255,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="F256" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10338,10 +10284,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="F257" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10367,10 +10313,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
       <c r="F258" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="G258" t="n">
         <v>4</v>
@@ -10396,10 +10342,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="F259" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="G259" t="n">
         <v>3</v>
@@ -10425,10 +10371,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F260" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="G260" t="n">
         <v>2</v>
@@ -10454,10 +10400,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="F261" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="G261" t="n">
         <v>2</v>
@@ -10483,10 +10429,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="F262" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="G262" t="n">
         <v>2</v>
@@ -10512,10 +10458,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="F263" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="G263" t="n">
         <v>2</v>
@@ -10541,10 +10487,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="F264" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="G264" t="n">
         <v>4</v>
@@ -10570,10 +10516,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F265" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G265" t="n">
         <v>3</v>
@@ -10599,10 +10545,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F266" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10628,10 +10574,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F267" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="G267" t="n">
         <v>2</v>
@@ -10657,10 +10603,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F268" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10686,10 +10632,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F269" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10715,10 +10661,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F270" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10744,10 +10690,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F271" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10773,10 +10719,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F272" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10802,10 +10748,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F273" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10831,10 +10777,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F274" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10860,10 +10806,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F275" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10889,10 +10835,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F276" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10918,10 +10864,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F277" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10947,10 +10893,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F278" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="G278" t="n">
         <v>2</v>
@@ -10976,10 +10922,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F279" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -11005,10 +10951,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F280" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -11034,10 +10980,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F281" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -11063,10 +11009,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F282" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -11092,10 +11038,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F283" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -11121,10 +11067,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F284" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -11150,10 +11096,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F285" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11179,10 +11125,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F286" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -11208,10 +11154,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F287" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11237,10 +11183,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F288" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="G288" t="n">
         <v>2</v>
@@ -11266,10 +11212,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F289" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11295,10 +11241,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F290" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11324,10 +11270,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>136</v>
+      </c>
+      <c r="F291" t="s">
         <v>137</v>
-      </c>
-      <c r="F291" t="s">
-        <v>138</v>
       </c>
       <c r="G291" t="n">
         <v>23</v>
@@ -11353,10 +11299,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F292" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11382,10 +11328,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F293" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11411,10 +11357,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F294" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11440,10 +11386,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F295" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11469,10 +11415,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F296" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11498,10 +11444,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F297" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11527,10 +11473,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F298" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11556,10 +11502,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F299" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G299" t="n">
         <v>3</v>
@@ -11585,10 +11531,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F300" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11614,10 +11560,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F301" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11643,10 +11589,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F302" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11672,10 +11618,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F303" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11701,10 +11647,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F304" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11730,10 +11676,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F305" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11759,10 +11705,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F306" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11788,10 +11734,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F307" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11817,10 +11763,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F308" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="G308" t="n">
         <v>3</v>
@@ -11846,10 +11792,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F309" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11875,10 +11821,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="F310" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="G310" t="n">
         <v>5</v>
@@ -11904,10 +11850,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F311" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11933,10 +11879,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="F312" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11962,10 +11908,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F313" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G313" t="n">
         <v>2</v>
@@ -11991,10 +11937,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="F314" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="G314" t="n">
         <v>5</v>
@@ -12020,10 +11966,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="F315" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="G315" t="n">
         <v>5</v>
@@ -12049,10 +11995,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="F316" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="G316" t="n">
         <v>4</v>
@@ -12078,10 +12024,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
       <c r="F317" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="G317" t="n">
         <v>4</v>
@@ -12107,10 +12053,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="F318" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="G318" t="n">
         <v>2</v>
@@ -12136,10 +12082,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="F319" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12165,10 +12111,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F320" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G320" t="n">
         <v>2</v>
@@ -12194,10 +12140,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="F321" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="G321" t="n">
         <v>4</v>
@@ -12223,10 +12169,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="F322" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="G322" t="n">
         <v>3</v>
@@ -12252,10 +12198,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="F323" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="G323" t="n">
         <v>5</v>
@@ -12281,10 +12227,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F324" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12310,10 +12256,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="F325" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="G325" t="n">
         <v>2</v>
@@ -12339,10 +12285,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="F326" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12368,10 +12314,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="F327" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="G327" t="n">
         <v>1</v>
@@ -12397,10 +12343,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="F328" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="G328" t="n">
         <v>3</v>
@@ -12426,10 +12372,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F329" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G329" t="n">
         <v>2</v>
@@ -12455,10 +12401,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="F330" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12484,10 +12430,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="F331" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12513,10 +12459,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F332" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G332" t="n">
         <v>3</v>
@@ -12542,10 +12488,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="F333" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12571,10 +12517,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="F334" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12600,10 +12546,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F335" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12629,10 +12575,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="F336" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12658,10 +12604,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="F337" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12687,10 +12633,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F338" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12716,10 +12662,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="F339" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G339" t="n">
         <v>2</v>
@@ -12745,10 +12691,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="F340" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G340" t="n">
         <v>3</v>
@@ -12774,10 +12720,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="F341" t="s">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12803,10 +12749,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F342" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12832,10 +12778,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="F343" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12861,10 +12807,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="F344" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G344" t="n">
         <v>2</v>
@@ -12890,10 +12836,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F345" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G345" t="n">
         <v>2</v>
@@ -12919,10 +12865,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="F346" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G346" t="n">
         <v>2</v>
@@ -12948,10 +12894,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="F347" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12977,10 +12923,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F348" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -13006,10 +12952,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F349" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -13035,10 +12981,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="F350" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G350" t="n">
         <v>1</v>
@@ -13064,10 +13010,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="F351" t="s">
-        <v>644</v>
+        <v>580</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -13093,10 +13039,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
       <c r="F352" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -13122,10 +13068,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
       <c r="F353" t="s">
-        <v>648</v>
+        <v>582</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -13151,10 +13097,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="F354" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="G354" t="n">
         <v>4</v>
@@ -13180,10 +13126,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
       <c r="F355" t="s">
-        <v>652</v>
+        <v>576</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13209,10 +13155,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="F356" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -13238,10 +13184,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>653</v>
+        <v>636</v>
       </c>
       <c r="F357" t="s">
-        <v>654</v>
+        <v>637</v>
       </c>
       <c r="G357" t="n">
         <v>7</v>
@@ -13267,10 +13213,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F358" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13296,10 +13242,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="F359" t="s">
-        <v>658</v>
+        <v>641</v>
       </c>
       <c r="G359" t="n">
         <v>2</v>
@@ -13325,10 +13271,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>659</v>
+        <v>642</v>
       </c>
       <c r="F360" t="s">
-        <v>660</v>
+        <v>643</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13354,10 +13300,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="F361" t="s">
-        <v>662</v>
+        <v>645</v>
       </c>
       <c r="G361" t="n">
         <v>2</v>
@@ -13383,10 +13329,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F362" t="s">
-        <v>664</v>
+        <v>647</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13412,10 +13358,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>665</v>
+        <v>648</v>
       </c>
       <c r="F363" t="s">
-        <v>666</v>
+        <v>649</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13441,10 +13387,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="F364" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
       <c r="G364" t="n">
         <v>8</v>
@@ -13470,10 +13416,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="F365" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13499,10 +13445,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>669</v>
+        <v>652</v>
       </c>
       <c r="F366" t="s">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13528,10 +13474,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F367" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G367" t="n">
         <v>2</v>
@@ -13557,10 +13503,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="F368" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13586,10 +13532,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="F369" t="s">
-        <v>674</v>
+        <v>657</v>
       </c>
       <c r="G369" t="n">
         <v>2</v>
@@ -13615,10 +13561,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="F370" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13644,10 +13590,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>677</v>
+        <v>660</v>
       </c>
       <c r="F371" t="s">
-        <v>678</v>
+        <v>661</v>
       </c>
       <c r="G371" t="n">
         <v>2</v>
@@ -13673,10 +13619,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>679</v>
+        <v>662</v>
       </c>
       <c r="F372" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13702,10 +13648,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="F373" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13731,10 +13677,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="F374" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13760,10 +13706,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>685</v>
+        <v>668</v>
       </c>
       <c r="F375" t="s">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="G375" t="n">
         <v>2</v>
@@ -13789,10 +13735,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>687</v>
+        <v>670</v>
       </c>
       <c r="F376" t="s">
-        <v>688</v>
+        <v>671</v>
       </c>
       <c r="G376" t="n">
         <v>2</v>
@@ -13818,10 +13764,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>689</v>
+        <v>672</v>
       </c>
       <c r="F377" t="s">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13847,10 +13793,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="F378" t="s">
-        <v>692</v>
+        <v>675</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13876,10 +13822,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>693</v>
+        <v>676</v>
       </c>
       <c r="F379" t="s">
-        <v>694</v>
+        <v>677</v>
       </c>
       <c r="G379" t="n">
         <v>2</v>
@@ -13905,10 +13851,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F380" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
@@ -13934,10 +13880,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
       <c r="F381" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="G381" t="n">
         <v>2</v>
@@ -13963,10 +13909,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>699</v>
+        <v>682</v>
       </c>
       <c r="F382" t="s">
-        <v>700</v>
+        <v>683</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -13992,10 +13938,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>701</v>
+        <v>684</v>
       </c>
       <c r="F383" t="s">
-        <v>702</v>
+        <v>685</v>
       </c>
       <c r="G383" t="n">
         <v>2</v>
@@ -14021,10 +13967,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>703</v>
+        <v>686</v>
       </c>
       <c r="F384" t="s">
-        <v>704</v>
+        <v>687</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -14050,10 +13996,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="F385" t="s">
-        <v>706</v>
+        <v>689</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -14079,10 +14025,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>707</v>
+        <v>690</v>
       </c>
       <c r="F386" t="s">
-        <v>708</v>
+        <v>691</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -14108,10 +14054,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>709</v>
+        <v>692</v>
       </c>
       <c r="F387" t="s">
-        <v>710</v>
+        <v>693</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -14137,10 +14083,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>711</v>
+        <v>694</v>
       </c>
       <c r="F388" t="s">
-        <v>712</v>
+        <v>695</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14166,10 +14112,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>713</v>
+        <v>696</v>
       </c>
       <c r="F389" t="s">
-        <v>714</v>
+        <v>697</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14195,10 +14141,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>715</v>
+        <v>698</v>
       </c>
       <c r="F390" t="s">
-        <v>716</v>
+        <v>699</v>
       </c>
       <c r="G390" t="n">
         <v>2</v>
@@ -14224,10 +14170,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="F391" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14253,10 +14199,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F392" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14282,10 +14228,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F393" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G393" t="n">
         <v>2</v>
@@ -14311,10 +14257,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>721</v>
+        <v>704</v>
       </c>
       <c r="F394" t="s">
-        <v>722</v>
+        <v>705</v>
       </c>
       <c r="G394" t="n">
         <v>1</v>
@@ -14340,10 +14286,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>723</v>
+        <v>706</v>
       </c>
       <c r="F395" t="s">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14369,10 +14315,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>725</v>
+        <v>708</v>
       </c>
       <c r="F396" t="s">
-        <v>726</v>
+        <v>709</v>
       </c>
       <c r="G396" t="n">
         <v>1</v>
@@ -14398,10 +14344,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>727</v>
+        <v>710</v>
       </c>
       <c r="F397" t="s">
-        <v>728</v>
+        <v>711</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14427,10 +14373,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>729</v>
+        <v>712</v>
       </c>
       <c r="F398" t="s">
-        <v>730</v>
+        <v>713</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14456,10 +14402,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>731</v>
+        <v>714</v>
       </c>
       <c r="F399" t="s">
-        <v>732</v>
+        <v>715</v>
       </c>
       <c r="G399" t="n">
         <v>1</v>
@@ -14485,10 +14431,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>733</v>
+        <v>716</v>
       </c>
       <c r="F400" t="s">
-        <v>734</v>
+        <v>717</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14514,10 +14460,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>735</v>
+        <v>718</v>
       </c>
       <c r="F401" t="s">
-        <v>736</v>
+        <v>719</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14543,10 +14489,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>737</v>
+        <v>720</v>
       </c>
       <c r="F402" t="s">
-        <v>738</v>
+        <v>721</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14572,10 +14518,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>739</v>
+        <v>722</v>
       </c>
       <c r="F403" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="G403" t="n">
         <v>1</v>
@@ -14601,10 +14547,10 @@
         <v>403</v>
       </c>
       <c r="E404" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="F404" t="s">
-        <v>742</v>
+        <v>725</v>
       </c>
       <c r="G404" t="n">
         <v>1</v>
@@ -14630,10 +14576,10 @@
         <v>404</v>
       </c>
       <c r="E405" t="s">
-        <v>743</v>
+        <v>726</v>
       </c>
       <c r="F405" t="s">
-        <v>744</v>
+        <v>727</v>
       </c>
       <c r="G405" t="n">
         <v>1</v>
@@ -14659,10 +14605,10 @@
         <v>405</v>
       </c>
       <c r="E406" t="s">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="F406" t="s">
-        <v>432</v>
+        <v>419</v>
       </c>
       <c r="G406" t="n">
         <v>1</v>
@@ -14688,10 +14634,10 @@
         <v>406</v>
       </c>
       <c r="E407" t="s">
-        <v>745</v>
+        <v>728</v>
       </c>
       <c r="F407" t="s">
-        <v>746</v>
+        <v>729</v>
       </c>
       <c r="G407" t="n">
         <v>1</v>
@@ -14717,10 +14663,10 @@
         <v>407</v>
       </c>
       <c r="E408" t="s">
-        <v>747</v>
+        <v>730</v>
       </c>
       <c r="F408" t="s">
-        <v>748</v>
+        <v>731</v>
       </c>
       <c r="G408" t="n">
         <v>1</v>
@@ -14746,10 +14692,10 @@
         <v>408</v>
       </c>
       <c r="E409" t="s">
-        <v>433</v>
+        <v>420</v>
       </c>
       <c r="F409" t="s">
-        <v>434</v>
+        <v>241</v>
       </c>
       <c r="G409" t="n">
         <v>3</v>
@@ -14775,10 +14721,10 @@
         <v>409</v>
       </c>
       <c r="E410" t="s">
-        <v>749</v>
+        <v>732</v>
       </c>
       <c r="F410" t="s">
-        <v>750</v>
+        <v>733</v>
       </c>
       <c r="G410" t="n">
         <v>1</v>
@@ -14804,10 +14750,10 @@
         <v>410</v>
       </c>
       <c r="E411" t="s">
-        <v>751</v>
+        <v>734</v>
       </c>
       <c r="F411" t="s">
-        <v>752</v>
+        <v>735</v>
       </c>
       <c r="G411" t="n">
         <v>1</v>
@@ -14833,10 +14779,10 @@
         <v>411</v>
       </c>
       <c r="E412" t="s">
-        <v>753</v>
+        <v>736</v>
       </c>
       <c r="F412" t="s">
-        <v>754</v>
+        <v>737</v>
       </c>
       <c r="G412" t="n">
         <v>1</v>
@@ -14862,10 +14808,10 @@
         <v>412</v>
       </c>
       <c r="E413" t="s">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="F413" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G413" t="n">
         <v>1</v>
@@ -14891,10 +14837,10 @@
         <v>413</v>
       </c>
       <c r="E414" t="s">
-        <v>757</v>
+        <v>740</v>
       </c>
       <c r="F414" t="s">
-        <v>758</v>
+        <v>741</v>
       </c>
       <c r="G414" t="n">
         <v>1</v>
@@ -14920,10 +14866,10 @@
         <v>414</v>
       </c>
       <c r="E415" t="s">
-        <v>759</v>
+        <v>742</v>
       </c>
       <c r="F415" t="s">
-        <v>760</v>
+        <v>743</v>
       </c>
       <c r="G415" t="n">
         <v>1</v>
@@ -14949,10 +14895,10 @@
         <v>415</v>
       </c>
       <c r="E416" t="s">
-        <v>761</v>
+        <v>744</v>
       </c>
       <c r="F416" t="s">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="G416" t="n">
         <v>1</v>
@@ -14978,10 +14924,10 @@
         <v>416</v>
       </c>
       <c r="E417" t="s">
-        <v>763</v>
+        <v>746</v>
       </c>
       <c r="F417" t="s">
-        <v>764</v>
+        <v>747</v>
       </c>
       <c r="G417" t="n">
         <v>1</v>
@@ -15007,10 +14953,10 @@
         <v>417</v>
       </c>
       <c r="E418" t="s">
-        <v>765</v>
+        <v>748</v>
       </c>
       <c r="F418" t="s">
-        <v>766</v>
+        <v>749</v>
       </c>
       <c r="G418" t="n">
         <v>1</v>
@@ -15036,10 +14982,10 @@
         <v>418</v>
       </c>
       <c r="E419" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="F419" t="s">
-        <v>768</v>
+        <v>751</v>
       </c>
       <c r="G419" t="n">
         <v>1</v>
@@ -15065,10 +15011,10 @@
         <v>419</v>
       </c>
       <c r="E420" t="s">
-        <v>769</v>
+        <v>752</v>
       </c>
       <c r="F420" t="s">
-        <v>770</v>
+        <v>753</v>
       </c>
       <c r="G420" t="n">
         <v>1</v>
@@ -15094,10 +15040,10 @@
         <v>420</v>
       </c>
       <c r="E421" t="s">
-        <v>771</v>
+        <v>754</v>
       </c>
       <c r="F421" t="s">
-        <v>772</v>
+        <v>755</v>
       </c>
       <c r="G421" t="n">
         <v>1</v>
@@ -15123,10 +15069,10 @@
         <v>421</v>
       </c>
       <c r="E422" t="s">
-        <v>773</v>
+        <v>756</v>
       </c>
       <c r="F422" t="s">
-        <v>774</v>
+        <v>757</v>
       </c>
       <c r="G422" t="n">
         <v>1</v>
@@ -15152,10 +15098,10 @@
         <v>422</v>
       </c>
       <c r="E423" t="s">
-        <v>775</v>
+        <v>758</v>
       </c>
       <c r="F423" t="s">
-        <v>776</v>
+        <v>759</v>
       </c>
       <c r="G423" t="n">
         <v>1</v>
@@ -15181,10 +15127,10 @@
         <v>423</v>
       </c>
       <c r="E424" t="s">
-        <v>777</v>
+        <v>760</v>
       </c>
       <c r="F424" t="s">
-        <v>778</v>
+        <v>761</v>
       </c>
       <c r="G424" t="n">
         <v>1</v>
@@ -15210,10 +15156,10 @@
         <v>424</v>
       </c>
       <c r="E425" t="s">
-        <v>779</v>
+        <v>762</v>
       </c>
       <c r="F425" t="s">
-        <v>780</v>
+        <v>763</v>
       </c>
       <c r="G425" t="n">
         <v>1</v>
@@ -15239,10 +15185,10 @@
         <v>425</v>
       </c>
       <c r="E426" t="s">
-        <v>781</v>
+        <v>764</v>
       </c>
       <c r="F426" t="s">
-        <v>782</v>
+        <v>691</v>
       </c>
       <c r="G426" t="n">
         <v>1</v>
@@ -15268,10 +15214,10 @@
         <v>426</v>
       </c>
       <c r="E427" t="s">
-        <v>783</v>
+        <v>765</v>
       </c>
       <c r="F427" t="s">
-        <v>784</v>
+        <v>766</v>
       </c>
       <c r="G427" t="n">
         <v>1</v>
@@ -15297,10 +15243,10 @@
         <v>427</v>
       </c>
       <c r="E428" t="s">
-        <v>785</v>
+        <v>767</v>
       </c>
       <c r="F428" t="s">
-        <v>786</v>
+        <v>768</v>
       </c>
       <c r="G428" t="n">
         <v>1</v>
@@ -15326,10 +15272,10 @@
         <v>428</v>
       </c>
       <c r="E429" t="s">
-        <v>787</v>
+        <v>769</v>
       </c>
       <c r="F429" t="s">
-        <v>788</v>
+        <v>770</v>
       </c>
       <c r="G429" t="n">
         <v>1</v>
@@ -15355,10 +15301,10 @@
         <v>429</v>
       </c>
       <c r="E430" t="s">
-        <v>789</v>
+        <v>771</v>
       </c>
       <c r="F430" t="s">
-        <v>790</v>
+        <v>772</v>
       </c>
       <c r="G430" t="n">
         <v>1</v>
@@ -15384,10 +15330,10 @@
         <v>430</v>
       </c>
       <c r="E431" t="s">
-        <v>791</v>
+        <v>773</v>
       </c>
       <c r="F431" t="s">
-        <v>792</v>
+        <v>774</v>
       </c>
       <c r="G431" t="n">
         <v>1</v>
@@ -15413,10 +15359,10 @@
         <v>431</v>
       </c>
       <c r="E432" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F432" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="G432" t="n">
         <v>1</v>
@@ -15442,10 +15388,10 @@
         <v>432</v>
       </c>
       <c r="E433" t="s">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="F433" t="s">
-        <v>794</v>
+        <v>776</v>
       </c>
       <c r="G433" t="n">
         <v>1</v>
@@ -15471,10 +15417,10 @@
         <v>433</v>
       </c>
       <c r="E434" t="s">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="F434" t="s">
-        <v>796</v>
+        <v>778</v>
       </c>
       <c r="G434" t="n">
         <v>1</v>
@@ -15500,10 +15446,10 @@
         <v>434</v>
       </c>
       <c r="E435" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="F435" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="G435" t="n">
         <v>3</v>
@@ -15529,10 +15475,10 @@
         <v>435</v>
       </c>
       <c r="E436" t="s">
-        <v>797</v>
+        <v>779</v>
       </c>
       <c r="F436" t="s">
-        <v>798</v>
+        <v>780</v>
       </c>
       <c r="G436" t="n">
         <v>1</v>
@@ -15558,10 +15504,10 @@
         <v>436</v>
       </c>
       <c r="E437" t="s">
-        <v>799</v>
+        <v>781</v>
       </c>
       <c r="F437" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="G437" t="n">
         <v>1</v>
@@ -15587,10 +15533,10 @@
         <v>437</v>
       </c>
       <c r="E438" t="s">
-        <v>801</v>
+        <v>783</v>
       </c>
       <c r="F438" t="s">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="G438" t="n">
         <v>1</v>
@@ -15616,10 +15562,10 @@
         <v>438</v>
       </c>
       <c r="E439" t="s">
-        <v>803</v>
+        <v>785</v>
       </c>
       <c r="F439" t="s">
-        <v>804</v>
+        <v>786</v>
       </c>
       <c r="G439" t="n">
         <v>1</v>
@@ -15645,10 +15591,10 @@
         <v>439</v>
       </c>
       <c r="E440" t="s">
-        <v>805</v>
+        <v>787</v>
       </c>
       <c r="F440" t="s">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="G440" t="n">
         <v>1</v>
@@ -15674,10 +15620,10 @@
         <v>440</v>
       </c>
       <c r="E441" t="s">
-        <v>807</v>
+        <v>789</v>
       </c>
       <c r="F441" t="s">
-        <v>808</v>
+        <v>790</v>
       </c>
       <c r="G441" t="n">
         <v>1</v>
@@ -15703,10 +15649,10 @@
         <v>441</v>
       </c>
       <c r="E442" t="s">
-        <v>809</v>
+        <v>791</v>
       </c>
       <c r="F442" t="s">
-        <v>810</v>
+        <v>792</v>
       </c>
       <c r="G442" t="n">
         <v>1</v>
@@ -15732,10 +15678,10 @@
         <v>442</v>
       </c>
       <c r="E443" t="s">
-        <v>811</v>
+        <v>793</v>
       </c>
       <c r="F443" t="s">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="G443" t="n">
         <v>1</v>
@@ -15761,10 +15707,10 @@
         <v>443</v>
       </c>
       <c r="E444" t="s">
-        <v>813</v>
+        <v>795</v>
       </c>
       <c r="F444" t="s">
-        <v>814</v>
+        <v>796</v>
       </c>
       <c r="G444" t="n">
         <v>1</v>
@@ -15790,10 +15736,10 @@
         <v>444</v>
       </c>
       <c r="E445" t="s">
-        <v>815</v>
+        <v>797</v>
       </c>
       <c r="F445" t="s">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="G445" t="n">
         <v>1</v>
@@ -15819,10 +15765,10 @@
         <v>445</v>
       </c>
       <c r="E446" t="s">
-        <v>817</v>
+        <v>799</v>
       </c>
       <c r="F446" t="s">
-        <v>818</v>
+        <v>800</v>
       </c>
       <c r="G446" t="n">
         <v>1</v>
@@ -15848,10 +15794,10 @@
         <v>446</v>
       </c>
       <c r="E447" t="s">
-        <v>819</v>
+        <v>801</v>
       </c>
       <c r="F447" t="s">
-        <v>820</v>
+        <v>802</v>
       </c>
       <c r="G447" t="n">
         <v>1</v>
@@ -15877,10 +15823,10 @@
         <v>447</v>
       </c>
       <c r="E448" t="s">
-        <v>821</v>
+        <v>803</v>
       </c>
       <c r="F448" t="s">
-        <v>822</v>
+        <v>804</v>
       </c>
       <c r="G448" t="n">
         <v>1</v>
@@ -15906,10 +15852,10 @@
         <v>448</v>
       </c>
       <c r="E449" t="s">
-        <v>823</v>
+        <v>805</v>
       </c>
       <c r="F449" t="s">
-        <v>824</v>
+        <v>806</v>
       </c>
       <c r="G449" t="n">
         <v>1</v>
@@ -15935,10 +15881,10 @@
         <v>449</v>
       </c>
       <c r="E450" t="s">
-        <v>719</v>
+        <v>702</v>
       </c>
       <c r="F450" t="s">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="G450" t="n">
         <v>1</v>
@@ -15964,10 +15910,10 @@
         <v>450</v>
       </c>
       <c r="E451" t="s">
-        <v>655</v>
+        <v>638</v>
       </c>
       <c r="F451" t="s">
-        <v>656</v>
+        <v>639</v>
       </c>
       <c r="G451" t="n">
         <v>2</v>
@@ -15993,10 +15939,10 @@
         <v>451</v>
       </c>
       <c r="E452" t="s">
-        <v>825</v>
+        <v>807</v>
       </c>
       <c r="F452" t="s">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="G452" t="n">
         <v>3</v>
@@ -16022,10 +15968,10 @@
         <v>452</v>
       </c>
       <c r="E453" t="s">
-        <v>827</v>
+        <v>809</v>
       </c>
       <c r="F453" t="s">
-        <v>828</v>
+        <v>810</v>
       </c>
       <c r="G453" t="n">
         <v>1</v>
@@ -16051,10 +15997,10 @@
         <v>453</v>
       </c>
       <c r="E454" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="F454" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="G454" t="n">
         <v>1</v>
@@ -16080,10 +16026,10 @@
         <v>454</v>
       </c>
       <c r="E455" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="F455" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="G455" t="n">
         <v>1</v>
@@ -16109,10 +16055,10 @@
         <v>455</v>
       </c>
       <c r="E456" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
       <c r="F456" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="G456" t="n">
         <v>1</v>
@@ -16138,10 +16084,10 @@
         <v>456</v>
       </c>
       <c r="E457" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="F457" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="G457" t="n">
         <v>1</v>
@@ -16167,10 +16113,10 @@
         <v>457</v>
       </c>
       <c r="E458" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="F458" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="G458" t="n">
         <v>1</v>
@@ -16196,10 +16142,10 @@
         <v>458</v>
       </c>
       <c r="E459" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
       <c r="F459" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="G459" t="n">
         <v>1</v>
@@ -16225,10 +16171,10 @@
         <v>459</v>
       </c>
       <c r="E460" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="F460" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="G460" t="n">
         <v>13</v>
@@ -16254,10 +16200,10 @@
         <v>460</v>
       </c>
       <c r="E461" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="F461" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="G461" t="n">
         <v>1</v>

--- a/xlsx/苏丹_intext.xlsx
+++ b/xlsx/苏丹_intext.xlsx
@@ -29,7 +29,7 @@
     <t>苏丹 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_苏丹</t>
+    <t>体育运动_体育运动_伊朗_苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
